--- a/doc/Testflow开发计划.xlsx
+++ b/doc/Testflow开发计划.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\Doc\TestFlow设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_jytek\Testflow\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="45">
   <si>
     <t>开发内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,15 +192,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>20-25天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-18天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>可能会有隐藏的bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可能在框架和软件的对接上出现问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-25天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +636,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -805,7 +809,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
@@ -850,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
@@ -859,10 +863,10 @@
       </c>
       <c r="B15" s="8"/>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Testflow开发计划.xlsx
+++ b/doc/Testflow开发计划.xlsx
@@ -47,164 +47,164 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>开发接口和用户接口的定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志模块/国际化模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果处理模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-15天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-10天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-10天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试序列组调度模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共享资源同步模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列组运行容器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态维护模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-7天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行引擎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分细节可能会在开发中修改，导致其他模块的变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架自测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计单元测试开发时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testflow框架和软件的联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-20天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要考虑到性能问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际开发天数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml的设计是可能的风险点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-12天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要考虑到性能问题和资源使用情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>框架管理API开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要考虑到用户扩展接口的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要考虑到用户自定义同步接口的设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细节较多，且自测调试不便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-25天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-18天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能会有隐藏的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可能在框架和软件的对接上出现问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件接口加载模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数配置检查模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试序列组数据序列化反序列模块
 相关Xml设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数配置检查模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件接口加载模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发接口和用户接口的定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志模块/国际化模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果处理模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-15天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-10天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8-10天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试序列组调度模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共享资源同步模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序列组运行容器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态维护模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-7天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运行引擎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分细节可能会在开发中修改，导致其他模块的变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架自测</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计单元测试开发时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Testflow框架和软件的联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-20天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要考虑到性能问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际开发天数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xml的设计是可能的风险点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-12天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据持久化模块
 设计数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要考虑到性能问题和资源使用情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>框架管理API开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要考虑到用户扩展接口的设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要考虑到用户自定义同步接口的设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>细节较多，且自测调试不便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-25天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-18天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能会有隐藏的bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可能在框架和软件的对接上出现问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,13 +274,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -636,7 +636,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -652,15 +652,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -672,217 +672,217 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>35</v>
+      <c r="A7" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
-      <c r="B10" t="s">
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="8"/>
+      <c r="A14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="6"/>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="6"/>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -956,19 +956,19 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+      <c r="A9" s="6"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="8"/>
+      <c r="A10" s="6"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
+      <c r="A11" s="6"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="8"/>
+      <c r="A12" s="6"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
